--- a/ModifiedData/Cu_S-C_del.xlsx
+++ b/ModifiedData/Cu_S-C_del.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20703"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_457A9821DAEAE23716098A17172284ABEC337A78" xr6:coauthVersionLast="35" xr6:coauthVersionMax="35" xr10:uidLastSave="{14E12B84-2D67-44C1-81E0-066DED4DA79A}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="xS vs FeS domain" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179020"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,9 +41,6 @@
     <t>LnDinv</t>
   </si>
   <si>
-    <t>FeNiX </t>
-  </si>
-  <si>
     <t>IT10</t>
   </si>
   <si>
@@ -339,11 +335,14 @@
   <si>
     <t>E17</t>
   </si>
+  <si>
+    <t>X</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -612,7 +611,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1205,7 +1204,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-40A6-4A43-BFD8-88B681CEEF4F}"/>
             </c:ext>
@@ -1492,7 +1491,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5B4B-4CDA-A48B-3895B45B11C4}"/>
             </c:ext>
@@ -1585,7 +1584,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5B4B-4CDA-A48B-3895B45B11C4}"/>
             </c:ext>
@@ -1690,7 +1689,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-5B4B-4CDA-A48B-3895B45B11C4}"/>
             </c:ext>
@@ -1825,7 +1824,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5B4B-4CDA-A48B-3895B45B11C4}"/>
             </c:ext>
@@ -1875,7 +1874,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-5B4B-4CDA-A48B-3895B45B11C4}"/>
             </c:ext>
@@ -1889,11 +1888,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1753792175"/>
-        <c:axId val="1753795919"/>
+        <c:axId val="264735152"/>
+        <c:axId val="264736328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1753792175"/>
+        <c:axId val="264735152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1950,12 +1949,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1753795919"/>
+        <c:crossAx val="264736328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1753795919"/>
+        <c:axId val="264736328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2012,7 +2011,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1753792175"/>
+        <c:crossAx val="264735152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2034,6 +2033,7 @@
         <c:idx val="6"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2676,7 +2676,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2959,19 +2959,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.85546875" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="28"/>
-    <col min="5" max="5" width="14.5703125" style="24" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="9"/>
+    <col min="1" max="1" width="51" customWidth="1"/>
+    <col min="3" max="4" width="9.109375" style="28"/>
+    <col min="5" max="5" width="14.5546875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2994,13 +2994,13 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2"/>
       <c r="B2" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="27">
         <v>0.43</v>
@@ -3025,7 +3025,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="27">
         <v>0.32</v>
@@ -3047,10 +3047,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>10</v>
       </c>
       <c r="C4" s="27">
         <v>0.33</v>
@@ -3072,10 +3072,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>12</v>
       </c>
       <c r="C5" s="27">
         <v>0.33</v>
@@ -3097,10 +3097,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>14</v>
       </c>
       <c r="C6" s="27">
         <v>0.24</v>
@@ -3123,7 +3123,7 @@
     <row r="7" spans="1:7">
       <c r="A7" s="2"/>
       <c r="B7" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="27">
         <v>0.24</v>
@@ -3146,7 +3146,7 @@
     <row r="8" spans="1:7">
       <c r="A8" s="2"/>
       <c r="B8" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="27">
         <v>0.18</v>
@@ -3169,7 +3169,7 @@
     <row r="9" spans="1:7">
       <c r="A9" s="4"/>
       <c r="B9" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="31">
         <v>0.14000000000000001</v>
@@ -3192,7 +3192,7 @@
     <row r="10" spans="1:7">
       <c r="A10" s="4"/>
       <c r="B10" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="31">
         <v>0.16500000000000001</v>
@@ -3215,7 +3215,7 @@
     <row r="11" spans="1:7">
       <c r="A11" s="4"/>
       <c r="B11" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="31">
         <v>0.23</v>
@@ -3237,10 +3237,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="C12" s="31">
         <v>0.31</v>
@@ -3263,7 +3263,7 @@
     <row r="13" spans="1:7">
       <c r="A13" s="4"/>
       <c r="B13" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="31">
         <v>0.39</v>
@@ -3286,7 +3286,7 @@
     <row r="14" spans="1:7">
       <c r="A14" s="4"/>
       <c r="B14" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="31">
         <v>0.38</v>
@@ -3309,7 +3309,7 @@
     <row r="15" spans="1:7">
       <c r="A15" s="5"/>
       <c r="B15" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="31">
         <v>0.78</v>
@@ -3331,10 +3331,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>25</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>26</v>
       </c>
       <c r="C16" s="31">
         <v>0.9</v>
@@ -3357,7 +3357,7 @@
     <row r="17" spans="1:7">
       <c r="A17" s="5"/>
       <c r="B17" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="32">
         <v>0.84</v>
@@ -3380,7 +3380,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="5"/>
       <c r="B18" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="31">
         <v>0.77</v>
@@ -3403,7 +3403,7 @@
     <row r="19" spans="1:7">
       <c r="A19" s="5"/>
       <c r="B19" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="31">
         <v>0.75</v>
@@ -3426,7 +3426,7 @@
     <row r="20" spans="1:7">
       <c r="A20" s="5"/>
       <c r="B20" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="33">
         <v>0.7</v>
@@ -3448,10 +3448,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>31</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>32</v>
       </c>
       <c r="C21" s="31">
         <v>0.39</v>
@@ -3474,7 +3474,7 @@
     <row r="22" spans="1:7">
       <c r="A22" s="6"/>
       <c r="B22" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="31">
         <v>0.47</v>
@@ -3497,7 +3497,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="6"/>
       <c r="B23" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="31">
         <v>0.56000000000000005</v>
@@ -3520,7 +3520,7 @@
     <row r="24" spans="1:7">
       <c r="A24" s="6"/>
       <c r="B24" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="31">
         <v>0.56000000000000005</v>
@@ -3543,7 +3543,7 @@
     <row r="25" spans="1:7">
       <c r="A25" s="8"/>
       <c r="B25" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="28">
         <v>0.77</v>
@@ -3566,7 +3566,7 @@
     <row r="26" spans="1:7">
       <c r="A26" s="8"/>
       <c r="B26" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="28">
         <v>0.6</v>
@@ -3591,7 +3591,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="28">
         <v>0.5</v>
@@ -3614,7 +3614,7 @@
     <row r="28" spans="1:7">
       <c r="A28" s="8"/>
       <c r="B28" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="28">
         <v>0.45</v>
@@ -3637,7 +3637,7 @@
     <row r="29" spans="1:7">
       <c r="A29" s="8"/>
       <c r="B29" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="28">
         <v>0.51</v>
@@ -3660,7 +3660,7 @@
     <row r="30" spans="1:7">
       <c r="A30" s="8"/>
       <c r="B30" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="28">
         <v>0.3</v>
@@ -3683,7 +3683,7 @@
     <row r="31" spans="1:7">
       <c r="A31" s="8"/>
       <c r="B31" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="28">
         <v>0.4</v>
@@ -3706,7 +3706,7 @@
     <row r="32" spans="1:7">
       <c r="A32" s="11"/>
       <c r="B32" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="28">
         <v>0.19</v>
@@ -3728,10 +3728,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>45</v>
       </c>
       <c r="C33" s="28">
         <v>0.25</v>
@@ -3754,7 +3754,7 @@
     <row r="34" spans="1:7">
       <c r="A34" s="11"/>
       <c r="B34" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="27">
         <v>0.71</v>
@@ -3777,7 +3777,7 @@
     <row r="35" spans="1:7">
       <c r="A35" s="11"/>
       <c r="B35" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="27">
         <v>0.56999999999999995</v>
@@ -3800,7 +3800,7 @@
     <row r="36" spans="1:7">
       <c r="A36" s="11"/>
       <c r="B36" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="27">
         <v>0.55000000000000004</v>
@@ -3823,7 +3823,7 @@
     <row r="37" spans="1:7">
       <c r="A37" s="11"/>
       <c r="B37" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="27">
         <v>0.5</v>
@@ -3845,10 +3845,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="21" t="s">
         <v>50</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>51</v>
       </c>
       <c r="C38" s="27">
         <v>0.55000000000000004</v>
@@ -3870,10 +3870,10 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="21" t="s">
         <v>52</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>53</v>
       </c>
       <c r="C39" s="27">
         <v>0.63</v>
@@ -3895,10 +3895,10 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="21" t="s">
         <v>54</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>55</v>
       </c>
       <c r="C40" s="27">
         <v>0.56000000000000005</v>
@@ -3921,20 +3921,20 @@
     <row r="41" spans="1:7">
       <c r="A41" s="3"/>
       <c r="B41" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="29">
         <v>1.03</v>
       </c>
       <c r="D41" s="28">
-        <f>1/C41</f>
+        <f t="shared" ref="D41:D51" si="10">1/C41</f>
         <v>0.970873786407767</v>
       </c>
       <c r="E41" s="23">
         <v>-0.31309181975465999</v>
       </c>
       <c r="F41" s="9">
-        <f>LN(D41)</f>
+        <f t="shared" ref="F41:F51" si="11">LN(D41)</f>
         <v>-2.9558802241544391E-2</v>
       </c>
       <c r="G41">
@@ -3944,20 +3944,20 @@
     <row r="42" spans="1:7">
       <c r="A42" s="3"/>
       <c r="B42" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="29">
         <v>1.01</v>
       </c>
       <c r="D42" s="28">
-        <f>1/C42</f>
+        <f t="shared" si="10"/>
         <v>0.99009900990099009</v>
       </c>
       <c r="E42" s="23">
         <v>-0.35199992317475925</v>
       </c>
       <c r="F42" s="9">
-        <f>LN(D42)</f>
+        <f t="shared" si="11"/>
         <v>-9.950330853168092E-3</v>
       </c>
       <c r="G42">
@@ -3969,20 +3969,20 @@
         <v>4</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="29">
         <v>0.9</v>
       </c>
       <c r="D43" s="28">
-        <f>1/C43</f>
+        <f t="shared" si="10"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="E43" s="23">
         <v>-0.25604793076192922</v>
       </c>
       <c r="F43" s="9">
-        <f>LN(D43)</f>
+        <f t="shared" si="11"/>
         <v>0.10536051565782635</v>
       </c>
       <c r="G43">
@@ -3991,23 +3991,23 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>59</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>60</v>
       </c>
       <c r="C44" s="29">
         <v>1.2</v>
       </c>
       <c r="D44" s="28">
-        <f>1/C44</f>
+        <f t="shared" si="10"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="E44" s="23">
         <v>-0.25414602903459477</v>
       </c>
       <c r="F44" s="9">
-        <f>LN(D44)</f>
+        <f t="shared" si="11"/>
         <v>-0.18232155679395459</v>
       </c>
       <c r="G44">
@@ -4017,20 +4017,20 @@
     <row r="45" spans="1:7">
       <c r="A45" s="3"/>
       <c r="B45" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="30">
         <v>1.1599999999999999</v>
       </c>
       <c r="D45" s="28">
-        <f>1/C45</f>
+        <f t="shared" si="10"/>
         <v>0.86206896551724144</v>
       </c>
       <c r="E45" s="23">
         <v>-0.16299231010435855</v>
       </c>
       <c r="F45" s="9">
-        <f>LN(D45)</f>
+        <f t="shared" si="11"/>
         <v>-0.14842000511827322</v>
       </c>
       <c r="G45">
@@ -4040,20 +4040,20 @@
     <row r="46" spans="1:7">
       <c r="A46" s="3"/>
       <c r="B46" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" s="29">
         <v>1.1100000000000001</v>
       </c>
       <c r="D46" s="28">
-        <f>1/C46</f>
+        <f t="shared" si="10"/>
         <v>0.9009009009009008</v>
       </c>
       <c r="E46" s="23">
         <v>-0.12200507328253608</v>
       </c>
       <c r="F46" s="9">
-        <f>LN(D46)</f>
+        <f t="shared" si="11"/>
         <v>-0.10436001532424288</v>
       </c>
       <c r="G46">
@@ -4063,20 +4063,20 @@
     <row r="47" spans="1:7">
       <c r="A47" s="3"/>
       <c r="B47" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47" s="29">
         <v>0.99</v>
       </c>
       <c r="D47" s="28">
-        <f>1/C47</f>
+        <f t="shared" si="10"/>
         <v>1.0101010101010102</v>
       </c>
       <c r="E47" s="23">
         <v>-8.4529547150020548E-2</v>
       </c>
       <c r="F47" s="9">
-        <f>LN(D47)</f>
+        <f t="shared" si="11"/>
         <v>1.0050335853501506E-2</v>
       </c>
       <c r="G47">
@@ -4088,20 +4088,20 @@
         <v>6</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="28">
         <v>1.41</v>
       </c>
       <c r="D48" s="28">
-        <f>1/C48</f>
+        <f t="shared" si="10"/>
         <v>0.70921985815602839</v>
       </c>
       <c r="E48" s="23">
         <v>-0.34528172058084899</v>
       </c>
       <c r="F48" s="9">
-        <f>LN(D48)</f>
+        <f t="shared" si="11"/>
         <v>-0.34358970439007686</v>
       </c>
       <c r="G48">
@@ -4110,23 +4110,23 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="C49" s="28">
         <v>1.32</v>
       </c>
       <c r="D49" s="28">
-        <f>1/C49</f>
+        <f t="shared" si="10"/>
         <v>0.75757575757575757</v>
       </c>
       <c r="E49" s="23">
         <v>-0.32105053988227406</v>
       </c>
       <c r="F49" s="9">
-        <f>LN(D49)</f>
+        <f t="shared" si="11"/>
         <v>-0.2776317365982795</v>
       </c>
       <c r="G49">
@@ -4136,20 +4136,20 @@
     <row r="50" spans="1:7">
       <c r="A50" s="7"/>
       <c r="B50" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50" s="28">
         <v>1.6</v>
       </c>
       <c r="D50" s="28">
-        <f>1/C50</f>
+        <f t="shared" si="10"/>
         <v>0.625</v>
       </c>
       <c r="E50" s="23">
         <v>-0.30165409629311157</v>
       </c>
       <c r="F50" s="9">
-        <f>LN(D50)</f>
+        <f t="shared" si="11"/>
         <v>-0.47000362924573558</v>
       </c>
       <c r="G50">
@@ -4159,20 +4159,20 @@
     <row r="51" spans="1:7">
       <c r="A51" s="7"/>
       <c r="B51" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C51" s="28">
         <v>1.3</v>
       </c>
       <c r="D51" s="28">
-        <f>1/C51</f>
+        <f t="shared" si="10"/>
         <v>0.76923076923076916</v>
       </c>
       <c r="E51" s="23">
         <v>-0.25382839429713666</v>
       </c>
       <c r="F51" s="9">
-        <f>LN(D51)</f>
+        <f t="shared" si="11"/>
         <v>-0.26236426446749112</v>
       </c>
       <c r="G51">
@@ -4182,7 +4182,7 @@
     <row r="52" spans="1:7">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C52" s="28">
         <v>1.57</v>
@@ -4205,7 +4205,7 @@
     <row r="53" spans="1:7">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" s="28">
         <v>1.2</v>
@@ -4228,7 +4228,7 @@
     <row r="54" spans="1:7">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C54" s="28">
         <v>1.24</v>
@@ -4251,7 +4251,7 @@
     <row r="55" spans="1:7">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C55" s="28">
         <v>1.19</v>
@@ -4274,7 +4274,7 @@
     <row r="56" spans="1:7">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C56" s="28">
         <v>1.1499999999999999</v>
@@ -4296,10 +4296,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>75</v>
       </c>
       <c r="C57" s="28">
         <v>1.19</v>
@@ -4322,7 +4322,7 @@
     <row r="58" spans="1:7">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C58" s="28">
         <v>1.1299999999999999</v>
@@ -4345,7 +4345,7 @@
     <row r="59" spans="1:7">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C59" s="28">
         <v>0.92</v>
@@ -4368,7 +4368,7 @@
     <row r="60" spans="1:7">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C60" s="28">
         <v>0.93</v>
@@ -4391,20 +4391,20 @@
     <row r="61" spans="1:7">
       <c r="A61" s="10"/>
       <c r="B61" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C61" s="28">
         <v>0.73</v>
       </c>
       <c r="D61" s="28">
-        <f t="shared" ref="D61:D70" si="10">1/C61</f>
+        <f t="shared" ref="D61:D70" si="12">1/C61</f>
         <v>1.3698630136986301</v>
       </c>
       <c r="E61" s="23">
         <v>-5.1716683185269667E-2</v>
       </c>
       <c r="F61" s="9">
-        <f t="shared" ref="F61:F70" si="11">LN(D61)</f>
+        <f t="shared" ref="F61:F70" si="13">LN(D61)</f>
         <v>0.31471074483970018</v>
       </c>
       <c r="G61">
@@ -4414,20 +4414,20 @@
     <row r="62" spans="1:7">
       <c r="A62" s="12"/>
       <c r="B62" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C62" s="34">
         <v>0.23</v>
       </c>
       <c r="D62" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.3478260869565215</v>
       </c>
       <c r="E62" s="23">
         <v>-0.59953088802459731</v>
       </c>
       <c r="F62" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.4696759700589417</v>
       </c>
       <c r="G62">
@@ -4439,20 +4439,20 @@
         <v>2</v>
       </c>
       <c r="B63" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C63" s="34">
         <v>0.15</v>
       </c>
       <c r="D63" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>6.666666666666667</v>
       </c>
       <c r="E63" s="23">
         <v>-0.98638764955993763</v>
       </c>
       <c r="F63" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.8971199848858813</v>
       </c>
       <c r="G63">
@@ -4461,23 +4461,23 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64" s="34">
         <v>0.31</v>
       </c>
       <c r="D64" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>3.2258064516129035</v>
       </c>
       <c r="E64" s="23">
         <v>-0.35350073586408354</v>
       </c>
       <c r="F64" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.1711829815029453</v>
       </c>
       <c r="G64">
@@ -4486,23 +4486,23 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="20" t="s">
         <v>82</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>83</v>
       </c>
       <c r="C65" s="34">
         <v>0.17</v>
       </c>
       <c r="D65" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5.8823529411764701</v>
       </c>
       <c r="E65" s="23">
         <v>-1.0760111708047901</v>
       </c>
       <c r="F65" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.7719568419318752</v>
       </c>
       <c r="G65">
@@ -4512,20 +4512,20 @@
     <row r="66" spans="1:7">
       <c r="A66" s="12"/>
       <c r="B66" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C66" s="34">
         <v>0.22</v>
       </c>
       <c r="D66" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.5454545454545459</v>
       </c>
       <c r="E66" s="23">
         <v>-0.4800077057788566</v>
       </c>
       <c r="F66" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.5141277326297755</v>
       </c>
       <c r="G66">
@@ -4535,20 +4535,20 @@
     <row r="67" spans="1:7">
       <c r="A67" s="12"/>
       <c r="B67" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C67" s="34">
         <v>0.41</v>
       </c>
       <c r="D67" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.4390243902439024</v>
       </c>
       <c r="E67" s="23">
         <v>-9.2811035688959653E-2</v>
       </c>
       <c r="F67" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.89159811928378352</v>
       </c>
       <c r="G67">
@@ -4558,20 +4558,20 @@
     <row r="68" spans="1:7">
       <c r="A68" s="12"/>
       <c r="B68" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C68" s="34">
         <v>0.52</v>
       </c>
       <c r="D68" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.9230769230769229</v>
       </c>
       <c r="E68" s="23">
         <v>-4.7822023151585437E-2</v>
       </c>
       <c r="F68" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0.65392646740666394</v>
       </c>
       <c r="G68">
@@ -4581,20 +4581,20 @@
     <row r="69" spans="1:7">
       <c r="A69" s="12"/>
       <c r="B69" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C69" s="34">
         <v>0.2</v>
       </c>
       <c r="D69" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="E69" s="23">
         <v>-1.3323593868995454</v>
       </c>
       <c r="F69" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.6094379124341003</v>
       </c>
       <c r="G69">
@@ -4604,20 +4604,20 @@
     <row r="70" spans="1:7">
       <c r="A70" s="12"/>
       <c r="B70" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C70" s="34">
         <v>0.17</v>
       </c>
       <c r="D70" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5.8823529411764701</v>
       </c>
       <c r="E70" s="23">
         <v>-1.0837377408194213</v>
       </c>
       <c r="F70" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.7719568419318752</v>
       </c>
       <c r="G70">
@@ -4631,24 +4631,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
